--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352163.0312717718</v>
+        <v>357953.918597517</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>988005.7655927931</v>
+        <v>1130025.291852272</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24903603.24714331</v>
+        <v>23504165.84736959</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3789942.762188923</v>
+        <v>4340431.145974561</v>
       </c>
     </row>
     <row r="11">
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>39.90680945488464</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1932,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>39.90680945488464</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>39.90680945488464</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>39.90680945488464</v>
       </c>
     </row>
     <row r="22">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>52.85181331539135</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>52.85181331539135</v>
       </c>
     </row>
     <row r="25">
@@ -2567,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>52.22339736665038</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2594,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.6284159487409369</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
     </row>
     <row r="30">
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>52.22339736665039</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3068,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
     </row>
     <row r="34">
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>52.22339736665036</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3305,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3357,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3752,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>52.22339736665037</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3779,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
     </row>
     <row r="42">
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>54.03789265728911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
     </row>
     <row r="45">
@@ -4107,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>54.0378926572891</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>140.9199254964276</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>95.15481589119648</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>49.38970628596539</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.624596680734301</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>48.47898060482128</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>93.33336452890828</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>138.1877484529953</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>95.15481589119648</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>49.38970628596539</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>46.11142414908812</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.66668226445413</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>91.52106618854111</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>91.52106618854111</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>136.3754501126281</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>181.2298340367151</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>135.464724431484</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>3.624596680734302</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>48.47898060482126</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>93.33336452890822</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>138.1877484529952</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>181.229834036715</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>181.229834036715</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>181.229834036715</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>181.229834036715</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>135.4647244314839</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>89.69961482625288</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>89.69961482625288</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>46.11142414908812</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>90.96580807317508</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>90.96580807317508</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>135.820191997262</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>136.375450112628</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>181.229834036715</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>181.229834036715</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>135.4647244314839</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>89.69961482625288</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>89.69961482625288</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>89.69961482625288</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>43.93450522102182</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>3.6245966807343</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>10.80666113085709</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>70.21094721423292</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>129.6152332976088</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>179.4068837942991</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>186.6316474930425</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>65.41078006446202</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>61.80445925846172</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>121.2087453418376</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>186.6316474930425</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4.800346350171786</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>186.6316474930425</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.410780064462</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>10.80666113085709</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>70.21094721423293</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>129.6152332976088</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>51.36673824530578</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>170.1753104120575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>229.5795964954333</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.80034635017183</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>10.80666113085712</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>70.21094721423296</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>129.6152332976088</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>65.410780064462</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>170.1753104120575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>118.161686495422</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>57.55125278113178</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>57.55125278113178</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>57.55125278113178</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>70.21094721423293</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>129.6152332976088</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>239.3825539240025</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>186.6316474930425</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>65.410780064462</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>64.20463243354763</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>123.6089185169235</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>183.0132046002993</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>186.6316474930425</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>118.161686495422</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>57.55125278113175</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>70.21094721423292</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>129.6152332976088</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>65.410780064462</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>4.800346350171785</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>170.1753104120575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>170.1753104120575</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>240.0173175085893</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>186.6316474930424</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>170.1753104120574</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>170.1753104120574</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>186.6316474930424</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>186.6316474930424</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>186.6316474930424</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>186.6316474930424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>118.161686495422</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>118.161686495422</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64.20463243354762</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>121.2087453418375</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>121.2087453418375</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>186.6316474930424</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>66.87870273551412</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>66.87870273551412</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>66.87870273551412</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>11.4647141039008</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>72.20212751297919</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>132.9395409220575</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>193.6769543311359</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>245.4036905417308</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>245.4036905417308</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>183.4330616170513</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>183.4330616170513</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>183.4330616170513</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>183.4330616170513</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>128.8493316601936</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>128.8493316601936</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>128.8493316601936</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>128.8493316601936</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>66.87870273551412</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>51.8482537050056</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>112.585667114084</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>123.9288637235741</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>123.9288637235741</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>184.6662771326525</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>245.4036905417308</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>245.4036905417308</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>245.4036905417308</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>245.4036905417308</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>183.4330616170513</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>183.4330616170513</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>121.4624326923718</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>59.4918037676923</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>4.908073810834617</v>
       </c>
     </row>
   </sheetData>
@@ -8693,13 +8695,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M11" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N11" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O11" t="n">
         <v>246.758517458259</v>
@@ -8769,22 +8771,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L12" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M12" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N12" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O12" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P12" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8930,13 +8932,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M14" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N14" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O14" t="n">
         <v>246.758517458259</v>
@@ -9006,22 +9008,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L15" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M15" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N15" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O15" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P15" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9167,13 +9169,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>270.6444670286918</v>
+        <v>260.4134786387776</v>
       </c>
       <c r="M17" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6273688792599</v>
       </c>
       <c r="N17" t="n">
-        <v>260.6727596612894</v>
+        <v>243.1830512023429</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
@@ -9243,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>156.5283879628043</v>
+        <v>116.2034660287524</v>
       </c>
       <c r="M18" t="n">
-        <v>158.8073274317979</v>
+        <v>156.402998966014</v>
       </c>
       <c r="N18" t="n">
-        <v>145.2543769669952</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O18" t="n">
-        <v>160.2613470196622</v>
+        <v>160.766636444008</v>
       </c>
       <c r="P18" t="n">
-        <v>152.4484465568465</v>
+        <v>161.7982145464489</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9404,13 +9406,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
-        <v>270.6444670286918</v>
+        <v>260.4134786387775</v>
       </c>
       <c r="M20" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6273688792599</v>
       </c>
       <c r="N20" t="n">
-        <v>260.6727596612894</v>
+        <v>243.1830512023429</v>
       </c>
       <c r="O20" t="n">
         <v>246.758517458259</v>
@@ -9480,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>156.5283879628043</v>
+        <v>160.9500577547332</v>
       </c>
       <c r="M21" t="n">
-        <v>158.8073274317979</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N21" t="n">
-        <v>145.2543769669952</v>
+        <v>141.587259470837</v>
       </c>
       <c r="O21" t="n">
-        <v>160.2613470196622</v>
+        <v>116.0200447180272</v>
       </c>
       <c r="P21" t="n">
-        <v>152.4484465568465</v>
+        <v>161.7982145464489</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9641,13 +9643,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>270.6444670286918</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M23" t="n">
-        <v>262.1171336583936</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N23" t="n">
-        <v>260.6727596612894</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9717,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>158.8643559162101</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L24" t="n">
-        <v>156.5283879628043</v>
+        <v>110.1017125573465</v>
       </c>
       <c r="M24" t="n">
-        <v>158.8073274317979</v>
+        <v>162.2094990670133</v>
       </c>
       <c r="N24" t="n">
-        <v>145.2543769669952</v>
+        <v>149.647042373468</v>
       </c>
       <c r="O24" t="n">
-        <v>160.2613470196622</v>
+        <v>169.3918684840761</v>
       </c>
       <c r="P24" t="n">
-        <v>152.4484465568465</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9878,13 +9880,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>270.6444670286918</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M26" t="n">
-        <v>262.1171336583936</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N26" t="n">
-        <v>260.6727596612894</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9954,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>156.5283879628043</v>
+        <v>170.1060419344938</v>
       </c>
       <c r="M27" t="n">
-        <v>158.8073274317979</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N27" t="n">
-        <v>145.2543769669952</v>
+        <v>149.647042373468</v>
       </c>
       <c r="O27" t="n">
-        <v>160.2613470196622</v>
+        <v>119.9306916454701</v>
       </c>
       <c r="P27" t="n">
-        <v>152.4484465568465</v>
+        <v>111.6177305927455</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10115,13 +10117,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>270.6444670286918</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M29" t="n">
-        <v>262.1171336583936</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N29" t="n">
-        <v>260.6727596612894</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10191,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>156.5283879628043</v>
+        <v>170.1060419344939</v>
       </c>
       <c r="M30" t="n">
-        <v>158.8073274317979</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N30" t="n">
-        <v>145.2543769669952</v>
+        <v>100.185865534862</v>
       </c>
       <c r="O30" t="n">
-        <v>160.2613470196622</v>
+        <v>109.3875391069288</v>
       </c>
       <c r="P30" t="n">
-        <v>152.4484465568465</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10352,13 +10354,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>270.6444670286918</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M32" t="n">
-        <v>262.1171336583936</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N32" t="n">
-        <v>260.6727596612894</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10428,22 +10430,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>158.8643559162101</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L33" t="n">
-        <v>156.5283879628043</v>
+        <v>170.1060419344939</v>
       </c>
       <c r="M33" t="n">
-        <v>158.8073274317979</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N33" t="n">
-        <v>145.2543769669952</v>
+        <v>149.647042373468</v>
       </c>
       <c r="O33" t="n">
-        <v>160.2613470196622</v>
+        <v>166.9674511355045</v>
       </c>
       <c r="P33" t="n">
-        <v>152.4484465568465</v>
+        <v>111.6177305927455</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10589,13 +10591,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>270.6444670286918</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M35" t="n">
-        <v>262.1171336583936</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N35" t="n">
-        <v>260.6727596612894</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10665,22 +10667,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
-        <v>156.5283879628043</v>
+        <v>170.1060419344939</v>
       </c>
       <c r="M36" t="n">
-        <v>158.8073274317979</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N36" t="n">
-        <v>145.2543769669952</v>
+        <v>89.64271299632065</v>
       </c>
       <c r="O36" t="n">
-        <v>160.2613470196622</v>
+        <v>119.9306916454701</v>
       </c>
       <c r="P36" t="n">
-        <v>152.4484465568465</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10826,13 +10828,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>270.6444670286918</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M38" t="n">
-        <v>262.1171336583936</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N38" t="n">
-        <v>260.6727596612894</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10902,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>156.5283879628043</v>
+        <v>170.1060419344939</v>
       </c>
       <c r="M39" t="n">
-        <v>158.8073274317979</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N39" t="n">
-        <v>145.2543769669952</v>
+        <v>89.64271299632065</v>
       </c>
       <c r="O39" t="n">
-        <v>160.2613470196622</v>
+        <v>119.9306916454701</v>
       </c>
       <c r="P39" t="n">
-        <v>152.4484465568465</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11063,13 +11065,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M41" t="n">
-        <v>262.1171336583936</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N41" t="n">
-        <v>260.6727596612894</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11139,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>158.8643559162101</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L42" t="n">
-        <v>156.5283879628043</v>
+        <v>170.1060419344939</v>
       </c>
       <c r="M42" t="n">
-        <v>158.8073274317979</v>
+        <v>162.2094990670133</v>
       </c>
       <c r="N42" t="n">
-        <v>145.2543769669952</v>
+        <v>89.64271299632065</v>
       </c>
       <c r="O42" t="n">
-        <v>160.2613470196622</v>
+        <v>169.3918684840761</v>
       </c>
       <c r="P42" t="n">
-        <v>152.4484465568465</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11300,13 +11302,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>268.2406881576144</v>
       </c>
       <c r="M44" t="n">
-        <v>262.1171336583936</v>
+        <v>252.5286666519843</v>
       </c>
       <c r="N44" t="n">
-        <v>260.6727596612894</v>
+        <v>249.9364191656265</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11376,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>158.8643559162101</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
-        <v>156.5283879628043</v>
+        <v>170.9449542907496</v>
       </c>
       <c r="M45" t="n">
-        <v>158.8073274317979</v>
+        <v>115.4949217245505</v>
       </c>
       <c r="N45" t="n">
-        <v>145.2543769669952</v>
+        <v>89.03459321428937</v>
       </c>
       <c r="O45" t="n">
-        <v>160.2613470196622</v>
+        <v>170.1821509476457</v>
       </c>
       <c r="P45" t="n">
-        <v>152.4484465568465</v>
+        <v>172.5221647701928</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>135.8316167428479</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23270,19 +23272,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H11" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I11" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J11" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K11" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R11" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S11" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T11" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H12" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I12" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J12" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R12" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S12" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T12" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H13" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I13" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J13" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K13" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L13" t="n">
-        <v>52.09548622449577</v>
+        <v>45.83348920913111</v>
       </c>
       <c r="M13" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N13" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O13" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P13" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R13" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S13" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T13" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,19 +23509,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H14" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I14" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J14" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K14" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R14" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S14" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T14" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H15" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I15" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J15" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R15" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S15" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T15" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H16" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I16" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J16" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K16" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L16" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M16" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N16" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O16" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P16" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R16" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S16" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T16" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23741,22 +23743,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>363.2924401851288</v>
       </c>
       <c r="G17" t="n">
-        <v>419.1372257337943</v>
+        <v>373.4778292818746</v>
       </c>
       <c r="H17" t="n">
-        <v>350.0840728010472</v>
+        <v>301.1723298357726</v>
       </c>
       <c r="I17" t="n">
-        <v>252.5390011750733</v>
+        <v>193.6634551283739</v>
       </c>
       <c r="J17" t="n">
-        <v>102.1633490996273</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K17" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>58.0961346578143</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.0060719774896</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R17" t="n">
-        <v>213.6669190178523</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S17" t="n">
-        <v>234.3316595809324</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T17" t="n">
-        <v>223.7749849055099</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23820,19 +23822,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>118.9166296650437</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9046118134526</v>
+        <v>103.4088499040611</v>
       </c>
       <c r="H18" t="n">
-        <v>127.2808586212757</v>
+        <v>80.1547856942526</v>
       </c>
       <c r="I18" t="n">
-        <v>112.8724349482959</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J18" t="n">
-        <v>67.59235497006948</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.29425231795664</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R18" t="n">
-        <v>144.6542915277517</v>
+        <v>87.65550436325753</v>
       </c>
       <c r="S18" t="n">
-        <v>194.5628574600357</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T18" t="n">
-        <v>215.61586546681</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H19" t="n">
-        <v>167.0170666797881</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I19" t="n">
-        <v>168.8870673881104</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J19" t="n">
-        <v>129.7236433787886</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K19" t="n">
-        <v>82.61516433249618</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L19" t="n">
-        <v>52.09548622449577</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M19" t="n">
-        <v>46.24466908004986</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N19" t="n">
-        <v>37.04796687835205</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O19" t="n">
-        <v>56.43963860165199</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P19" t="n">
-        <v>74.70280003544025</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4497818638882</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R19" t="n">
-        <v>209.4615981681609</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S19" t="n">
-        <v>237.7758219951765</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T19" t="n">
-        <v>224.3347225012506</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23975,25 +23977,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>331.5721026067515</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H20" t="n">
-        <v>350.0840728010472</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I20" t="n">
-        <v>252.5390011750733</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J20" t="n">
-        <v>102.1633490996273</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K20" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24005,28 +24007,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>58.0961346578143</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.0060719774896</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R20" t="n">
-        <v>213.6669190178523</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S20" t="n">
-        <v>234.3316595809324</v>
+        <v>181.0044152015442</v>
       </c>
       <c r="T20" t="n">
-        <v>223.7749849055099</v>
+        <v>176.9269180519826</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>275.5723250999733</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9046118134526</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H21" t="n">
-        <v>127.2808586212757</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I21" t="n">
-        <v>112.8724349482959</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J21" t="n">
-        <v>67.59235497006948</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,22 +24092,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.29425231795664</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R21" t="n">
-        <v>144.6542915277517</v>
+        <v>87.65550436325756</v>
       </c>
       <c r="S21" t="n">
-        <v>194.5628574600357</v>
+        <v>145.7577458811155</v>
       </c>
       <c r="T21" t="n">
-        <v>215.61586546681</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>195.3414624062235</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -24114,7 +24116,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>183.477476679141</v>
       </c>
     </row>
     <row r="22">
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H22" t="n">
-        <v>167.0170666797881</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I22" t="n">
-        <v>168.8870673881104</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J22" t="n">
-        <v>129.7236433787886</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K22" t="n">
-        <v>82.61516433249618</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L22" t="n">
-        <v>52.09548622449577</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M22" t="n">
-        <v>46.24466908004986</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N22" t="n">
-        <v>37.04796687835205</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O22" t="n">
-        <v>56.43963860165199</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P22" t="n">
-        <v>74.70280003544025</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4497818638882</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R22" t="n">
-        <v>209.4615981681609</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S22" t="n">
-        <v>237.7758219951765</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T22" t="n">
-        <v>224.3347225012506</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>321.235427062442</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24218,19 +24220,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H23" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I23" t="n">
-        <v>252.5390011750733</v>
+        <v>177.1278222362459</v>
       </c>
       <c r="J23" t="n">
-        <v>102.1633490996273</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K23" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>58.0961346578143</v>
+        <v>0.6284159487409369</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.0060719774896</v>
+        <v>18.84587915169744</v>
       </c>
       <c r="R23" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S23" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T23" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24272,7 +24274,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>322.2812380413026</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24287,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>127.5138221472186</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>99.16798569943123</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>98.81910974278102</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H24" t="n">
-        <v>127.2808586212757</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I24" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J24" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044385</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>144.6542915277517</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S24" t="n">
-        <v>194.5628574600357</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T24" t="n">
-        <v>215.61586546681</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24351,7 +24353,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>170.5324728186343</v>
       </c>
     </row>
     <row r="25">
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H25" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I25" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J25" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K25" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249939</v>
       </c>
       <c r="L25" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M25" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041804</v>
       </c>
       <c r="N25" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137939</v>
       </c>
       <c r="O25" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494227</v>
       </c>
       <c r="P25" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337786</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R25" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S25" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,19 +24457,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.1372257337943</v>
+        <v>366.5141954104828</v>
       </c>
       <c r="H26" t="n">
-        <v>350.0840728010472</v>
+        <v>285.9870024064936</v>
       </c>
       <c r="I26" t="n">
-        <v>252.5390011750733</v>
+        <v>177.1278222362459</v>
       </c>
       <c r="J26" t="n">
-        <v>102.1633490996273</v>
+        <v>8.24067206705822</v>
       </c>
       <c r="K26" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.0060719774896</v>
+        <v>78.85020852884475</v>
       </c>
       <c r="R26" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S26" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T26" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H27" t="n">
-        <v>127.2808586212757</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I27" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J27" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044385</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>144.6542915277517</v>
+        <v>71.37421188215353</v>
       </c>
       <c r="S27" t="n">
-        <v>194.5628574600357</v>
+        <v>130.5868692536365</v>
       </c>
       <c r="T27" t="n">
-        <v>215.61586546681</v>
+        <v>154.7496814346255</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2385962954956</v>
+        <v>184.3727157115237</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I28" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J28" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K28" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249939</v>
       </c>
       <c r="L28" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M28" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041804</v>
       </c>
       <c r="N28" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137939</v>
       </c>
       <c r="O28" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494227</v>
       </c>
       <c r="P28" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337786</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R28" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S28" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,19 +24694,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H29" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I29" t="n">
-        <v>252.5390011750733</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J29" t="n">
-        <v>102.1633490996273</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K29" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24716,37 +24718,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>58.0961346578143</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.0060719774896</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R29" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S29" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T29" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>260.8754542320047</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>285.0446505103756</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>299.7783849175588</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>322.2812380413026</v>
       </c>
     </row>
     <row r="30">
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H30" t="n">
-        <v>127.2808586212757</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I30" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J30" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>144.6542915277517</v>
+        <v>71.37421188215353</v>
       </c>
       <c r="S30" t="n">
-        <v>194.5628574600357</v>
+        <v>130.5868692536365</v>
       </c>
       <c r="T30" t="n">
-        <v>215.61586546681</v>
+        <v>154.7496814346255</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>187.7971076000109</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H31" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I31" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J31" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K31" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L31" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M31" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N31" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O31" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P31" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R31" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S31" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24926,22 +24928,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>343.1949202628662</v>
       </c>
       <c r="G32" t="n">
-        <v>419.1372257337943</v>
+        <v>358.7332633999858</v>
       </c>
       <c r="H32" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I32" t="n">
-        <v>252.5390011750733</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J32" t="n">
-        <v>102.1633490996273</v>
+        <v>16.02160407755516</v>
       </c>
       <c r="K32" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.0060719774896</v>
+        <v>18.84587915169745</v>
       </c>
       <c r="R32" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S32" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T32" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24996,28 +24998,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>127.5138221472186</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>99.16798569943123</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>111.8232424626524</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H33" t="n">
-        <v>127.2808586212757</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I33" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J33" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>144.6542915277517</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S33" t="n">
-        <v>194.5628574600357</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T33" t="n">
-        <v>215.61586546681</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25062,7 +25064,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>170.5324728186343</v>
       </c>
     </row>
     <row r="34">
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H34" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I34" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J34" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K34" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L34" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M34" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N34" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O34" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P34" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R34" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S34" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25154,7 +25156,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>290.2011680040315</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
@@ -25163,22 +25165,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>343.1949202628662</v>
       </c>
       <c r="G35" t="n">
-        <v>419.1372257337943</v>
+        <v>358.7332633999858</v>
       </c>
       <c r="H35" t="n">
-        <v>350.0840728010472</v>
+        <v>293.7679344169905</v>
       </c>
       <c r="I35" t="n">
-        <v>252.5390011750733</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J35" t="n">
-        <v>102.1633490996273</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K35" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.0060719774896</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R35" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S35" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T35" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9046118134526</v>
+        <v>95.83897601563636</v>
       </c>
       <c r="H36" t="n">
-        <v>127.2808586212757</v>
+        <v>65.2114542164985</v>
       </c>
       <c r="I36" t="n">
-        <v>112.8724349482959</v>
+        <v>45.50623501397568</v>
       </c>
       <c r="J36" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>144.6542915277517</v>
+        <v>71.37421188215353</v>
       </c>
       <c r="S36" t="n">
-        <v>194.5628574600357</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T36" t="n">
-        <v>215.61586546681</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H37" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I37" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J37" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K37" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L37" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M37" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N37" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O37" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P37" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R37" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S37" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T37" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,19 +25405,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.1372257337943</v>
+        <v>365.8857794617418</v>
       </c>
       <c r="H38" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I38" t="n">
-        <v>252.5390011750733</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J38" t="n">
-        <v>102.1633490996273</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K38" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25427,34 +25429,34 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>58.0961346578143</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.0060719774896</v>
+        <v>18.84587915169747</v>
       </c>
       <c r="R38" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S38" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T38" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>260.8754542320047</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>299.7783849175588</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25470,28 +25472,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>127.5138221472186</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>99.16798569943124</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>111.8232424626524</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H39" t="n">
-        <v>127.2808586212757</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I39" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J39" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,22 +25514,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>144.6542915277517</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S39" t="n">
-        <v>194.5628574600357</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T39" t="n">
-        <v>215.61586546681</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2385962954956</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>187.7971076000109</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H40" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I40" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J40" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K40" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L40" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M40" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N40" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O40" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P40" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R40" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S40" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T40" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,19 +25642,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.1372257337943</v>
+        <v>358.7332633999858</v>
       </c>
       <c r="H41" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I41" t="n">
-        <v>252.5390011750733</v>
+        <v>184.9087542467428</v>
       </c>
       <c r="J41" t="n">
-        <v>102.1633490996273</v>
+        <v>8.240672067058242</v>
       </c>
       <c r="K41" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.0060719774896</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R41" t="n">
-        <v>213.6669190178523</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S41" t="n">
-        <v>234.3316595809324</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T41" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25694,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>322.2812380413026</v>
       </c>
     </row>
     <row r="42">
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H42" t="n">
-        <v>127.2808586212757</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I42" t="n">
-        <v>112.8724349482959</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J42" t="n">
-        <v>67.59235497006948</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,28 +25751,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>144.6542915277517</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S42" t="n">
-        <v>194.5628574600357</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T42" t="n">
-        <v>215.61586546681</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2385962954956</v>
+        <v>184.3727157115237</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>180.6445915382549</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>206.7002541998643</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>157.3085850623233</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H43" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I43" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J43" t="n">
-        <v>129.7236433787886</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K43" t="n">
-        <v>82.61516433249618</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L43" t="n">
-        <v>52.09548622449577</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M43" t="n">
-        <v>46.24466908004986</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N43" t="n">
-        <v>37.04796687835205</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O43" t="n">
-        <v>56.43963860165199</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P43" t="n">
-        <v>74.70280003544025</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4497818638882</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R43" t="n">
-        <v>209.4615981681609</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S43" t="n">
-        <v>237.7758219951765</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T43" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25871,25 +25873,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>310.1279894262034</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H44" t="n">
-        <v>350.0840728010472</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I44" t="n">
-        <v>252.5390011750733</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J44" t="n">
-        <v>102.1633490996273</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K44" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>58.0961346578143</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.0060719774896</v>
+        <v>17.02737168693191</v>
       </c>
       <c r="R44" t="n">
-        <v>213.6669190178523</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S44" t="n">
-        <v>234.3316595809324</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T44" t="n">
-        <v>223.7749849055099</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1744657143414</v>
+        <v>196.1042528180236</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25931,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>320.9346447830172</v>
       </c>
     </row>
     <row r="45">
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9046118134526</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H45" t="n">
-        <v>127.2808586212757</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I45" t="n">
-        <v>112.8724349482959</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J45" t="n">
-        <v>67.59235497006948</v>
+        <v>47.16991341427536</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.29425231795664</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>144.6542915277517</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S45" t="n">
-        <v>194.5628574600357</v>
+        <v>190.5477680960884</v>
       </c>
       <c r="T45" t="n">
-        <v>215.61586546681</v>
+        <v>153.3936636990354</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>179.2979982799695</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>205.3536609415789</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>163.2750217821815</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H46" t="n">
-        <v>167.0170666797881</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I46" t="n">
-        <v>168.8870673881104</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J46" t="n">
-        <v>129.7236433787886</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K46" t="n">
-        <v>82.61516433249618</v>
+        <v>61.56048239024259</v>
       </c>
       <c r="L46" t="n">
-        <v>52.09548622449577</v>
+        <v>25.15274221169331</v>
       </c>
       <c r="M46" t="n">
-        <v>46.24466908004986</v>
+        <v>17.8373231700124</v>
       </c>
       <c r="N46" t="n">
-        <v>37.04796687835205</v>
+        <v>9.316084160515189</v>
       </c>
       <c r="O46" t="n">
-        <v>56.43963860165199</v>
+        <v>30.82475637644393</v>
       </c>
       <c r="P46" t="n">
-        <v>74.70280003544025</v>
+        <v>52.78484318413025</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4497818638882</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R46" t="n">
-        <v>209.4615981681609</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S46" t="n">
-        <v>237.7758219951765</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T46" t="n">
-        <v>224.3347225012506</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331237.3127528718</v>
+        <v>341614.17567938</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331237.3127528718</v>
+        <v>341614.17567938</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>331237.3127528718</v>
+        <v>397149.0415538259</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>331237.3127528718</v>
+        <v>397149.0415538259</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>331237.3127528718</v>
+        <v>411184.1343609612</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>331237.3127528718</v>
+        <v>411184.1343609614</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>331237.3127528718</v>
+        <v>411184.1343609612</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>331237.3127528718</v>
+        <v>411184.1343609614</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>331237.3127528718</v>
+        <v>411184.1343609612</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331237.3127528718</v>
+        <v>411184.1343609612</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331237.3127528718</v>
+        <v>411184.1343609612</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331237.3127528718</v>
+        <v>412451.1101245576</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68750.54047706009</v>
+        <v>68750.5404770601</v>
       </c>
       <c r="C2" t="n">
         <v>68750.54047706009</v>
@@ -26320,40 +26322,40 @@
         <v>68750.5404770601</v>
       </c>
       <c r="E2" t="n">
-        <v>72033.99017712973</v>
+        <v>74514.21183964792</v>
       </c>
       <c r="F2" t="n">
-        <v>72033.99017712973</v>
+        <v>74514.21183964789</v>
       </c>
       <c r="G2" t="n">
-        <v>72033.99017712973</v>
+        <v>87176.9752565165</v>
       </c>
       <c r="H2" t="n">
-        <v>72033.99017712973</v>
+        <v>87176.97525651653</v>
       </c>
       <c r="I2" t="n">
-        <v>72033.99017712973</v>
+        <v>90333.40951137201</v>
       </c>
       <c r="J2" t="n">
-        <v>72033.99017712973</v>
+        <v>90333.40951137205</v>
       </c>
       <c r="K2" t="n">
-        <v>72033.99017712973</v>
+        <v>90333.40951137204</v>
       </c>
       <c r="L2" t="n">
-        <v>72033.99017712973</v>
+        <v>90333.40951137204</v>
       </c>
       <c r="M2" t="n">
-        <v>72033.99017712973</v>
+        <v>90333.40951137204</v>
       </c>
       <c r="N2" t="n">
-        <v>72033.99017712973</v>
+        <v>90333.40951137204</v>
       </c>
       <c r="O2" t="n">
-        <v>72033.99017712972</v>
+        <v>90333.40951137205</v>
       </c>
       <c r="P2" t="n">
-        <v>72033.99017712973</v>
+        <v>90618.50332420587</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>21516.74497334658</v>
+        <v>40281.89958238632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>62323.02230315009</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12838.92213889818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26402,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>10903.28519769238</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1041.810871057104</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>15865.50934086002</v>
       </c>
       <c r="E4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="F4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="G4" t="n">
-        <v>15395.97120699573</v>
+        <v>14944.36471889497</v>
       </c>
       <c r="H4" t="n">
-        <v>15395.97120699573</v>
+        <v>14944.36471889497</v>
       </c>
       <c r="I4" t="n">
-        <v>15395.97120699573</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="J4" t="n">
-        <v>15395.97120699573</v>
+        <v>15150.35677336695</v>
       </c>
       <c r="K4" t="n">
-        <v>15395.97120699573</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="L4" t="n">
-        <v>15395.97120699573</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="M4" t="n">
-        <v>15395.97120699573</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="N4" t="n">
-        <v>15395.97120699573</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="O4" t="n">
-        <v>15395.97120699573</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="P4" t="n">
-        <v>15395.97120699573</v>
+        <v>15168.28156878939</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="F5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="G5" t="n">
-        <v>583.8477581225804</v>
+        <v>5247.012714479157</v>
       </c>
       <c r="H5" t="n">
-        <v>583.8477581225804</v>
+        <v>5247.012714479155</v>
       </c>
       <c r="I5" t="n">
-        <v>583.8477581225804</v>
+        <v>6399.220599987546</v>
       </c>
       <c r="J5" t="n">
-        <v>583.8477581225804</v>
+        <v>6399.220599987546</v>
       </c>
       <c r="K5" t="n">
-        <v>583.8477581225804</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="L5" t="n">
-        <v>583.8477581225804</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="M5" t="n">
-        <v>583.8477581225804</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="N5" t="n">
-        <v>583.8477581225804</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="O5" t="n">
-        <v>583.8477581225804</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="P5" t="n">
-        <v>583.8477581225804</v>
+        <v>6504.791056767596</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19257.43113620007</v>
+        <v>19257.43113620008</v>
       </c>
       <c r="C6" t="n">
         <v>19257.43113620007</v>
       </c>
       <c r="D6" t="n">
-        <v>19257.43113620009</v>
+        <v>19257.43113620008</v>
       </c>
       <c r="E6" t="n">
-        <v>34537.42623866483</v>
+        <v>18241.26390492244</v>
       </c>
       <c r="F6" t="n">
-        <v>56054.17121201142</v>
+        <v>58523.16348730873</v>
       </c>
       <c r="G6" t="n">
-        <v>56054.17121201142</v>
+        <v>4662.575519992271</v>
       </c>
       <c r="H6" t="n">
-        <v>56054.17121201142</v>
+        <v>66985.59782314239</v>
       </c>
       <c r="I6" t="n">
-        <v>56054.17121201142</v>
+        <v>55944.90999911933</v>
       </c>
       <c r="J6" t="n">
-        <v>56054.17121201142</v>
+        <v>68783.83213801756</v>
       </c>
       <c r="K6" t="n">
-        <v>56054.17121201142</v>
+        <v>68783.83213801755</v>
       </c>
       <c r="L6" t="n">
-        <v>56054.17121201142</v>
+        <v>68783.83213801755</v>
       </c>
       <c r="M6" t="n">
-        <v>56054.17121201142</v>
+        <v>68783.83213801755</v>
       </c>
       <c r="N6" t="n">
-        <v>56054.17121201142</v>
+        <v>68783.83213801755</v>
       </c>
       <c r="O6" t="n">
-        <v>56054.1712120114</v>
+        <v>57880.54694032518</v>
       </c>
       <c r="P6" t="n">
-        <v>56054.17121201142</v>
+        <v>67903.61982759178</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="F3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="G3" t="n">
-        <v>26.78200725332938</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="H3" t="n">
-        <v>26.78200725332938</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="I3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227977</v>
       </c>
       <c r="J3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227977</v>
       </c>
       <c r="K3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="L3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="M3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="N3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="O3" t="n">
-        <v>26.78200725332938</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="P3" t="n">
-        <v>26.78200725332938</v>
+        <v>127.2777504831783</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
     </row>
   </sheetData>
@@ -26966,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>64.18747520879683</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.86413471265602</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.087045260380705</v>
       </c>
     </row>
     <row r="4">
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.69687086796857</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27048,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.346593258285409</v>
       </c>
     </row>
   </sheetData>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164613</v>
       </c>
       <c r="H11" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I11" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J11" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K11" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L11" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M11" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N11" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O11" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P11" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R11" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S11" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H12" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I12" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J12" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K12" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L12" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M12" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923291</v>
       </c>
       <c r="N12" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843816</v>
       </c>
       <c r="O12" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P12" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R12" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S12" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854958</v>
       </c>
       <c r="I13" t="n">
-        <v>1.452375081869075</v>
+        <v>2.719018479620469</v>
       </c>
       <c r="J13" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K13" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L13" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M13" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N13" t="n">
-        <v>7.390516854021208</v>
+        <v>13.8359244460252</v>
       </c>
       <c r="O13" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P13" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503064</v>
       </c>
       <c r="R13" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318873</v>
       </c>
       <c r="S13" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H14" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I14" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J14" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K14" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L14" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M14" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N14" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O14" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P14" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R14" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S14" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H15" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I15" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J15" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K15" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L15" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M15" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N15" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O15" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P15" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R15" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S15" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I16" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J16" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K16" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L16" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M16" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N16" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O16" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P16" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R16" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S16" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H17" t="n">
-        <v>1.102638117721244</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I17" t="n">
-        <v>4.150807375412989</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J17" t="n">
-        <v>9.138047791426191</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K17" t="n">
-        <v>13.69556484482692</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L17" t="n">
-        <v>16.99055923469257</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M17" t="n">
-        <v>18.90527087887908</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N17" t="n">
-        <v>19.21117792655154</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O17" t="n">
-        <v>18.14057055117347</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P17" t="n">
-        <v>15.48255726849379</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.62675572172049</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R17" t="n">
-        <v>6.763197037696289</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S17" t="n">
-        <v>2.453447197126606</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H18" t="n">
-        <v>0.55635830162105</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I18" t="n">
-        <v>1.983384499421091</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J18" t="n">
-        <v>5.442558662678946</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K18" t="n">
-        <v>9.30219963250781</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L18" t="n">
-        <v>12.50795536864218</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M18" t="n">
-        <v>14.59619395306451</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N18" t="n">
-        <v>14.9825117746715</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O18" t="n">
-        <v>13.70607120255999</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P18" t="n">
-        <v>11.00033048863637</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.353429614159419</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R18" t="n">
-        <v>3.576661270548404</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S18" t="n">
-        <v>1.070016987904244</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4293902146517402</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I19" t="n">
-        <v>1.452375081869075</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J19" t="n">
-        <v>3.414486400149878</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K19" t="n">
-        <v>5.611050044222121</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L19" t="n">
-        <v>7.180212239687683</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M19" t="n">
-        <v>7.570527066707514</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N19" t="n">
-        <v>7.390516854021208</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O19" t="n">
-        <v>6.826338504504349</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P19" t="n">
-        <v>5.841111877021211</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.044083095252736</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R19" t="n">
-        <v>2.171537834015854</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S19" t="n">
-        <v>0.841657506633318</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H20" t="n">
-        <v>1.102638117721244</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I20" t="n">
-        <v>4.150807375412989</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J20" t="n">
-        <v>9.138047791426191</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K20" t="n">
-        <v>13.69556484482692</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L20" t="n">
-        <v>16.99055923469257</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M20" t="n">
-        <v>18.90527087887908</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N20" t="n">
-        <v>19.21117792655154</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O20" t="n">
-        <v>18.14057055117347</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P20" t="n">
-        <v>15.48255726849379</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.62675572172049</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R20" t="n">
-        <v>6.763197037696289</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S20" t="n">
-        <v>2.453447197126606</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H21" t="n">
-        <v>0.55635830162105</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I21" t="n">
-        <v>1.983384499421091</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J21" t="n">
-        <v>5.442558662678946</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K21" t="n">
-        <v>9.30219963250781</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L21" t="n">
-        <v>12.50795536864218</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M21" t="n">
-        <v>14.59619395306451</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N21" t="n">
-        <v>14.9825117746715</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O21" t="n">
-        <v>13.70607120255999</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P21" t="n">
-        <v>11.00033048863637</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.353429614159419</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R21" t="n">
-        <v>3.576661270548404</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S21" t="n">
-        <v>1.070016987904244</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4293902146517402</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I22" t="n">
-        <v>1.452375081869075</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J22" t="n">
-        <v>3.414486400149878</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K22" t="n">
-        <v>5.611050044222121</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L22" t="n">
-        <v>7.180212239687683</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M22" t="n">
-        <v>7.570527066707514</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N22" t="n">
-        <v>7.390516854021208</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O22" t="n">
-        <v>6.826338504504349</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P22" t="n">
-        <v>5.841111877021211</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.044083095252736</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R22" t="n">
-        <v>2.171537834015854</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S22" t="n">
-        <v>0.841657506633318</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5072993174785831</v>
       </c>
       <c r="H23" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127541</v>
       </c>
       <c r="I23" t="n">
-        <v>4.150807375412989</v>
+        <v>19.5576569370931</v>
       </c>
       <c r="J23" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684794</v>
       </c>
       <c r="K23" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571638</v>
       </c>
       <c r="L23" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300158</v>
       </c>
       <c r="M23" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021134</v>
       </c>
       <c r="N23" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599736</v>
       </c>
       <c r="O23" t="n">
-        <v>18.14057055117347</v>
+        <v>85.4742278778197</v>
       </c>
       <c r="P23" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756716</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036539</v>
       </c>
       <c r="R23" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156408</v>
       </c>
       <c r="S23" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262499</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828664</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H24" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250948</v>
       </c>
       <c r="I24" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593979</v>
       </c>
       <c r="J24" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230458</v>
       </c>
       <c r="K24" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460134</v>
       </c>
       <c r="L24" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409999</v>
       </c>
       <c r="M24" t="n">
-        <v>14.59619395306451</v>
+        <v>68.77393434642471</v>
       </c>
       <c r="N24" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534602</v>
       </c>
       <c r="O24" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529344</v>
       </c>
       <c r="P24" t="n">
-        <v>11.00033048863637</v>
+        <v>51.8310464527374</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211607</v>
       </c>
       <c r="R24" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899929</v>
       </c>
       <c r="S24" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737704</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181597</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736003</v>
       </c>
       <c r="I25" t="n">
-        <v>1.452375081869075</v>
+        <v>6.84325988322975</v>
       </c>
       <c r="J25" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586389</v>
       </c>
       <c r="K25" t="n">
-        <v>5.611050044222121</v>
+        <v>26.43798709421891</v>
       </c>
       <c r="L25" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022349</v>
       </c>
       <c r="M25" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633934</v>
       </c>
       <c r="N25" t="n">
-        <v>7.390516854021208</v>
+        <v>34.82242854123532</v>
       </c>
       <c r="O25" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121407</v>
       </c>
       <c r="P25" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864245</v>
       </c>
       <c r="R25" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S25" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132836</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412275</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371782</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5072993174785831</v>
       </c>
       <c r="H26" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127541</v>
       </c>
       <c r="I26" t="n">
-        <v>4.150807375412989</v>
+        <v>19.5576569370931</v>
       </c>
       <c r="J26" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684794</v>
       </c>
       <c r="K26" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571638</v>
       </c>
       <c r="L26" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300158</v>
       </c>
       <c r="M26" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021134</v>
       </c>
       <c r="N26" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599736</v>
       </c>
       <c r="O26" t="n">
-        <v>18.14057055117347</v>
+        <v>85.4742278778197</v>
       </c>
       <c r="P26" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756716</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036539</v>
       </c>
       <c r="R26" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156408</v>
       </c>
       <c r="S26" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262499</v>
       </c>
       <c r="U26" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828664</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H27" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250948</v>
       </c>
       <c r="I27" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593979</v>
       </c>
       <c r="J27" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230458</v>
       </c>
       <c r="K27" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460134</v>
       </c>
       <c r="L27" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409999</v>
       </c>
       <c r="M27" t="n">
-        <v>14.59619395306451</v>
+        <v>68.77393434642471</v>
       </c>
       <c r="N27" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534602</v>
       </c>
       <c r="O27" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529344</v>
       </c>
       <c r="P27" t="n">
-        <v>11.00033048863637</v>
+        <v>51.8310464527374</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211607</v>
       </c>
       <c r="R27" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899929</v>
       </c>
       <c r="S27" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737704</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181597</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736003</v>
       </c>
       <c r="I28" t="n">
-        <v>1.452375081869075</v>
+        <v>6.84325988322975</v>
       </c>
       <c r="J28" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586389</v>
       </c>
       <c r="K28" t="n">
-        <v>5.611050044222121</v>
+        <v>26.43798709421891</v>
       </c>
       <c r="L28" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022349</v>
       </c>
       <c r="M28" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633934</v>
       </c>
       <c r="N28" t="n">
-        <v>7.390516854021208</v>
+        <v>34.82242854123532</v>
       </c>
       <c r="O28" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121407</v>
       </c>
       <c r="P28" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864245</v>
       </c>
       <c r="R28" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S28" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132836</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412275</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371782</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H29" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I29" t="n">
-        <v>4.150807375412989</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J29" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K29" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L29" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M29" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N29" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O29" t="n">
-        <v>18.14057055117347</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P29" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R29" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S29" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U29" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H30" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I30" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J30" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K30" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L30" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M30" t="n">
-        <v>14.59619395306451</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N30" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O30" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P30" t="n">
-        <v>11.00033048863637</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R30" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S30" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I31" t="n">
-        <v>1.452375081869075</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J31" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K31" t="n">
-        <v>5.611050044222121</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L31" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M31" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N31" t="n">
-        <v>7.390516854021208</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O31" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P31" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R31" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S31" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H32" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I32" t="n">
-        <v>4.150807375412989</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J32" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K32" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L32" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M32" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N32" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O32" t="n">
-        <v>18.14057055117347</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P32" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R32" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S32" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U32" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H33" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I33" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J33" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K33" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L33" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M33" t="n">
-        <v>14.59619395306451</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N33" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O33" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P33" t="n">
-        <v>11.00033048863637</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R33" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S33" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I34" t="n">
-        <v>1.452375081869075</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J34" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K34" t="n">
-        <v>5.611050044222121</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L34" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M34" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N34" t="n">
-        <v>7.390516854021208</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O34" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P34" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R34" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S34" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H35" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I35" t="n">
-        <v>4.150807375412989</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J35" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K35" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L35" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M35" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N35" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O35" t="n">
-        <v>18.14057055117347</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P35" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R35" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S35" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U35" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H36" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I36" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J36" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K36" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L36" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M36" t="n">
-        <v>14.59619395306451</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N36" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O36" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P36" t="n">
-        <v>11.00033048863637</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R36" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S36" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I37" t="n">
-        <v>1.452375081869075</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J37" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K37" t="n">
-        <v>5.611050044222121</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L37" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M37" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N37" t="n">
-        <v>7.390516854021208</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O37" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P37" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R37" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S37" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H38" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I38" t="n">
-        <v>4.150807375412989</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J38" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K38" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L38" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M38" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N38" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O38" t="n">
-        <v>18.14057055117347</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P38" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q38" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R38" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S38" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U38" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H39" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I39" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J39" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K39" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L39" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M39" t="n">
-        <v>14.59619395306451</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N39" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O39" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P39" t="n">
-        <v>11.00033048863637</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R39" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S39" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I40" t="n">
-        <v>1.452375081869075</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J40" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K40" t="n">
-        <v>5.611050044222121</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L40" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M40" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N40" t="n">
-        <v>7.390516854021208</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O40" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P40" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R40" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S40" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H41" t="n">
-        <v>1.102638117721244</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I41" t="n">
-        <v>4.150807375412989</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J41" t="n">
-        <v>9.138047791426191</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K41" t="n">
-        <v>13.69556484482692</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L41" t="n">
-        <v>16.99055923469257</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M41" t="n">
-        <v>18.90527087887908</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N41" t="n">
-        <v>19.21117792655154</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O41" t="n">
-        <v>18.14057055117347</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P41" t="n">
-        <v>15.48255726849379</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.62675572172049</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R41" t="n">
-        <v>6.763197037696289</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S41" t="n">
-        <v>2.453447197126606</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U41" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H42" t="n">
-        <v>0.55635830162105</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I42" t="n">
-        <v>1.983384499421091</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J42" t="n">
-        <v>5.442558662678946</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K42" t="n">
-        <v>9.30219963250781</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L42" t="n">
-        <v>12.50795536864218</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M42" t="n">
-        <v>14.59619395306451</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N42" t="n">
-        <v>14.9825117746715</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O42" t="n">
-        <v>13.70607120255999</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P42" t="n">
-        <v>11.00033048863637</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.353429614159419</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R42" t="n">
-        <v>3.576661270548404</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S42" t="n">
-        <v>1.070016987904244</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I43" t="n">
-        <v>1.452375081869075</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J43" t="n">
-        <v>3.414486400149878</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K43" t="n">
-        <v>5.611050044222121</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L43" t="n">
-        <v>7.180212239687683</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M43" t="n">
-        <v>7.570527066707514</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N43" t="n">
-        <v>7.390516854021208</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O43" t="n">
-        <v>6.826338504504349</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P43" t="n">
-        <v>5.841111877021211</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.044083095252736</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R43" t="n">
-        <v>2.171537834015854</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S43" t="n">
-        <v>0.841657506633318</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.5116693486760934</v>
       </c>
       <c r="H44" t="n">
-        <v>1.102638117721244</v>
+        <v>5.240133717129043</v>
       </c>
       <c r="I44" t="n">
-        <v>4.150807375412989</v>
+        <v>19.72613256483511</v>
       </c>
       <c r="J44" t="n">
-        <v>9.138047791426191</v>
+        <v>43.42729638219762</v>
       </c>
       <c r="K44" t="n">
-        <v>13.69556484482692</v>
+        <v>65.08625991165667</v>
       </c>
       <c r="L44" t="n">
-        <v>16.99055923469257</v>
+        <v>80.74526074120267</v>
       </c>
       <c r="M44" t="n">
-        <v>18.90527087887908</v>
+        <v>89.84466052072115</v>
       </c>
       <c r="N44" t="n">
-        <v>19.21117792655154</v>
+        <v>91.29844105764711</v>
       </c>
       <c r="O44" t="n">
-        <v>18.14057055117347</v>
+        <v>86.2105289717492</v>
       </c>
       <c r="P44" t="n">
-        <v>15.48255726849379</v>
+        <v>73.57869192630812</v>
       </c>
       <c r="Q44" t="n">
-        <v>11.62675572172049</v>
+        <v>55.25453337684552</v>
       </c>
       <c r="R44" t="n">
-        <v>6.763197037696289</v>
+        <v>32.14114972377468</v>
       </c>
       <c r="S44" t="n">
-        <v>2.453447197126606</v>
+        <v>11.65966528295649</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.2398325738296</v>
       </c>
       <c r="U44" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.04093354789408746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2737672368883458</v>
       </c>
       <c r="H45" t="n">
-        <v>0.55635830162105</v>
+        <v>2.644015156263761</v>
       </c>
       <c r="I45" t="n">
-        <v>1.983384499421091</v>
+        <v>9.425757936725944</v>
       </c>
       <c r="J45" t="n">
-        <v>5.442558662678946</v>
+        <v>25.86500021847306</v>
       </c>
       <c r="K45" t="n">
-        <v>9.30219963250781</v>
+        <v>44.20740508999224</v>
       </c>
       <c r="L45" t="n">
-        <v>12.50795536864218</v>
+        <v>59.44231167612966</v>
       </c>
       <c r="M45" t="n">
-        <v>14.59619395306451</v>
+        <v>69.36637401333218</v>
       </c>
       <c r="N45" t="n">
-        <v>14.9825117746715</v>
+        <v>71.20229552737729</v>
       </c>
       <c r="O45" t="n">
-        <v>13.70607120255999</v>
+        <v>65.13618991000919</v>
       </c>
       <c r="P45" t="n">
-        <v>11.00033048863637</v>
+        <v>52.27753491072281</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.353429614159419</v>
+        <v>34.94614764209832</v>
       </c>
       <c r="R45" t="n">
-        <v>3.576661270548404</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S45" t="n">
-        <v>1.070016987904244</v>
+        <v>5.085106351851508</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2321949496774499</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2295172549696658</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4293902146517402</v>
+        <v>2.040617048730303</v>
       </c>
       <c r="I46" t="n">
-        <v>1.452375081869075</v>
+        <v>6.90220981308777</v>
       </c>
       <c r="J46" t="n">
-        <v>3.414486400149878</v>
+        <v>16.22686992635537</v>
       </c>
       <c r="K46" t="n">
-        <v>5.611050044222121</v>
+        <v>26.66573198647571</v>
       </c>
       <c r="L46" t="n">
-        <v>7.180212239687683</v>
+        <v>34.12295625249014</v>
       </c>
       <c r="M46" t="n">
-        <v>7.570527066707514</v>
+        <v>35.97787297674497</v>
       </c>
       <c r="N46" t="n">
-        <v>7.390516854021208</v>
+        <v>35.12239957185807</v>
       </c>
       <c r="O46" t="n">
-        <v>6.826338504504349</v>
+        <v>32.44122072971241</v>
       </c>
       <c r="P46" t="n">
-        <v>5.841111877021211</v>
+        <v>27.7590687283312</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.044083095252736</v>
+        <v>19.21894032295993</v>
       </c>
       <c r="R46" t="n">
-        <v>2.171537834015854</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S46" t="n">
-        <v>0.841657506633318</v>
+        <v>3.999859797971356</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.98066463487039</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>43.47685412496952</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>42.91598734177154</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.5608667831979884</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>45.30745850917877</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>43.47685412496952</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>42.91598734177154</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.5608667831979812</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>45.30745850917875</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6.066984626954849</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>51.51292740162087</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>57.57991202857569</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>60.00432937714732</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.066984626954849</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>51.51292740162087</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>47.03675949003434</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>10.54315253854138</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>10.54315253854138</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.57991202857571</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>10.54315253854138</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>60.00432937714731</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>10.54315253854135</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>57.57991202857567</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.622868982895142</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>52.24922849555037</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>47.41432312542524</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>11.45777435302028</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>61.35092263543271</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
